--- a/data/raw/lcfs_credit_prices.xlsx
+++ b/data/raw/lcfs_credit_prices.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danpost/Dropbox/Myster_Gas_Surcharge/Analysis/Data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danpost/mystery_ca_gas_surcharge/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99B806E2-B674-3948-9B94-140E965D96B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECAE9929-AF5B-214C-AA78-24B4FCFD3CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="2320" windowWidth="26840" windowHeight="15940" xr2:uid="{E85214E3-9701-F842-BDBD-FA25A07549EA}"/>
+    <workbookView xWindow="460" yWindow="2180" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fig E w ARGUS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,54 +31,226 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="13">
   <si>
-    <t>Date (Month YR)</t>
+    <t xml:space="preserve">  Volume of Credits Transacted (MT)</t>
   </si>
   <si>
     <t>ARB Monthly Average Credit Price</t>
   </si>
   <si>
-    <t xml:space="preserve">  Volume of Credits Transacted (MT)</t>
+    <t>Date (Month YR)</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>https://ww2.arb.ca.gov/resources/documents/monthly-lcfs-credit-transfer-activity-reports</t>
+  </si>
+  <si>
+    <t>Last updated 01/14/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="92">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="mmm\ yy"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[Color10][&gt;78.4]0.0;[Red][&lt;22]0.0;0.0"/>
+    <numFmt numFmtId="167" formatCode="[Color10][&gt;19.7]0.0;[Red][&lt;2.9]0.0;0.0"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="[Color10][&gt;32.1]0.0;[Red][&lt;9.5]0.0;0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0_)"/>
+    <numFmt numFmtId="171" formatCode="[Red][&gt;2.2]0.0;[Color10][&lt;0.42]0.0;0.0"/>
+    <numFmt numFmtId="172" formatCode="[Red][&gt;4.2]0.0;[Color10][&lt;0]0.0;0.0"/>
+    <numFmt numFmtId="173" formatCode="[Red][&gt;2.8]0.0;[Color10][&lt;0.47]0.0;0.0"/>
+    <numFmt numFmtId="174" formatCode="[Red][&gt;4]0.0;[Color10][&lt;0]0.0;0.0"/>
+    <numFmt numFmtId="175" formatCode="0.000_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;0.00&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="180" formatCode="[Red][&gt;1]0.0%;[Color10][&lt;0.85]0.0%;0.0%"/>
+    <numFmt numFmtId="181" formatCode="[Red][&gt;1.01]0.0%;[Color10][&lt;0.99]0.0%;0.0%"/>
+    <numFmt numFmtId="182" formatCode="[Color10][&gt;6]0.0;[Red][&lt;2]0.0;0.0"/>
+    <numFmt numFmtId="183" formatCode="[Red][&gt;25]0.0_);[Color10][&lt;7]0.0_);0.0_)"/>
+    <numFmt numFmtId="184" formatCode="[Red][&gt;50]0.0_);[Color10][&lt;20]0.0_);0.0_)"/>
+    <numFmt numFmtId="185" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="dd\-mmm\-yy_)"/>
+    <numFmt numFmtId="187" formatCode="#,##0_);\(#,##0_);&quot;&quot;"/>
+    <numFmt numFmtId="188" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;0&quot;_);_(@_)"/>
+    <numFmt numFmtId="189" formatCode="0.0"/>
+    <numFmt numFmtId="190" formatCode="#,##0.0"/>
+    <numFmt numFmtId="191" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;&quot;_);_(@_)"/>
+    <numFmt numFmtId="192" formatCode="[Color10][&gt;66.2]0.0;[Red][&lt;13.2]0.0;0.0"/>
+    <numFmt numFmtId="193" formatCode="[Color10][&gt;100]0.0_);[Red][&lt;-50]0.0_);0.0_)"/>
+    <numFmt numFmtId="194" formatCode="[Red][&gt;1.04]0.0%;[Color10][&lt;0.98]0.0%;0.0%"/>
+    <numFmt numFmtId="195" formatCode="[Red][&gt;4]0.0_);[Color10][&lt;1]0.0_);0.0_)"/>
+    <numFmt numFmtId="196" formatCode="[Color10][&gt;22.9]0.0;[Red][&lt;3.7]0.0;0.0"/>
+    <numFmt numFmtId="197" formatCode="[Color10][&gt;52.4]0.0;[Red][&lt;11.5]0.0;0.0"/>
+    <numFmt numFmtId="198" formatCode="[Color10][&gt;31.1]0.0;[Red][&lt;3.1]0.0;0.0"/>
+    <numFmt numFmtId="199" formatCode="[Color10][&gt;34.1]0.0;[Red][&lt;1.8]0.0;0.0"/>
+    <numFmt numFmtId="200" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
+    <numFmt numFmtId="201" formatCode="#,##0.00\ &quot;F&quot;;[Red]\-#,##0.00\ &quot;F&quot;"/>
+    <numFmt numFmtId="202" formatCode="[Red][&gt;0.95]0.0%;[Color10][&lt;0.93]0.0%;0.0%"/>
+    <numFmt numFmtId="203" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;&quot;_);_(@_)"/>
+    <numFmt numFmtId="204" formatCode="0.00_)"/>
+    <numFmt numFmtId="205" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;&quot;_);_(@_)"/>
+    <numFmt numFmtId="206" formatCode="&quot;$&quot;\ #,###,###,##0_);\(&quot;$&quot;\ #,###,###,##0\)_);&quot;&quot;_)"/>
+    <numFmt numFmtId="207" formatCode="&quot;$&quot;\ #,###,##0.00_);\(&quot;$&quot;\ #,###,##0.00\)_);&quot;&quot;_)"/>
+    <numFmt numFmtId="208" formatCode="#,###,###,##0_);\(#,###,###,##0\)_);&quot;&quot;_)"/>
+    <numFmt numFmtId="209" formatCode="#,###,##0.0_);\(#,###,##0.0\);&quot;&quot;_)"/>
+    <numFmt numFmtId="210" formatCode="#,###,##0.00_);\-#,###,##0.00_);&quot;&quot;_)"/>
+    <numFmt numFmtId="211" formatCode="#,###,##0.000_);\-#,###,##0.000_);&quot;&quot;_)"/>
+    <numFmt numFmtId="212" formatCode="#,###,###,##0_);\(#,###,###,##0\);&quot;&quot;_)"/>
+    <numFmt numFmtId="213" formatCode="#,###,##0_);\-#,###,##0_)"/>
+    <numFmt numFmtId="214" formatCode="#,###,##0.0_);\-#,###,##0.0_)"/>
+    <numFmt numFmtId="215" formatCode="#,###,###,##0_);\-#,###,###,##0_)"/>
+    <numFmt numFmtId="216" formatCode="&quot;$&quot;\ #,###,##0_);\(&quot;$&quot;\ #,###,##0\)_)"/>
+    <numFmt numFmtId="217" formatCode="&quot;$&quot;\ #,###,##0.00_);\(&quot;$&quot;\ #,###,##0.00\)_)"/>
+    <numFmt numFmtId="218" formatCode="#,###,##0.0_);\(#,###,##0.0\)"/>
+    <numFmt numFmtId="219" formatCode="#,###,###,##0_);\(#,###,###,##0\)_)"/>
+    <numFmt numFmtId="220" formatCode="#,###,##0.00_);\-#,###,##0.00_)"/>
+    <numFmt numFmtId="221" formatCode="#,###,##0.000_)"/>
+    <numFmt numFmtId="222" formatCode="[Red][&gt;1.07]0.0%;[Color10][&lt;0.99]0.0%;0.0%"/>
+    <numFmt numFmtId="223" formatCode="[Red][&gt;4.9]0.0_);[Color10][&lt;2]0.0_);0.0_)"/>
+    <numFmt numFmtId="224" formatCode="[Red][&gt;0.93]0.000_);[Color10][&lt;0.89]0.000_);0.000_)"/>
+    <numFmt numFmtId="225" formatCode="[Red][&gt;4]0.0_);[Color10][&lt;0]0.0_);0.0_)"/>
+    <numFmt numFmtId="226" formatCode="[Red][&gt;8]0.0_);[Color10][&lt;0]0.0_);0.0_)"/>
+    <numFmt numFmtId="227" formatCode="[Red][&gt;3]0.0_);[Color10][&lt;0]0.0_);0.0_)"/>
+    <numFmt numFmtId="228" formatCode="[Red][&gt;2.5]0.0_);[Color10][&lt;0.5]0.0_);0.0_)"/>
+    <numFmt numFmtId="229" formatCode="[Red][&gt;600]0.0_);[Color10][&lt;400]0.0_);0.0_)"/>
+    <numFmt numFmtId="230" formatCode="[Color10][&gt;101.1]0.0;[Red][&lt;15.8]0.0;0.0"/>
+    <numFmt numFmtId="231" formatCode="[Red][&gt;70]0.0_);[Color10][&lt;32]0.0_);0.0_)"/>
+    <numFmt numFmtId="232" formatCode="[Red][&gt;25]0.0_);[Color10][&lt;3]0.0_);0.0_)"/>
+    <numFmt numFmtId="233" formatCode="_(* 0.000E+0_);_(* \-0.000E+0;_(* &quot;&quot;_);_(@_)"/>
+    <numFmt numFmtId="234" formatCode="General_)"/>
+    <numFmt numFmtId="235" formatCode="#####0.00"/>
+    <numFmt numFmtId="236" formatCode="&quot;$&quot;#,###,##0_)"/>
+    <numFmt numFmtId="237" formatCode="#,###,###,##0_)"/>
+    <numFmt numFmtId="238" formatCode="#,###,##0_)"/>
+    <numFmt numFmtId="239" formatCode="#,###,##0.0_)"/>
+    <numFmt numFmtId="240" formatCode="#,###,##0.00_);\(#,###,##0.00\)_)"/>
+    <numFmt numFmtId="241" formatCode="#,###,##0.0000_)"/>
+    <numFmt numFmtId="242" formatCode="#,###,##0.0_);\-#,###,##0.0_);0.0_)"/>
+    <numFmt numFmtId="243" formatCode="##0.0"/>
+    <numFmt numFmtId="244" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;0.0&quot;_);_(@_)"/>
+    <numFmt numFmtId="245" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="246" formatCode="[Red][&gt;0.99]0.0%;[Color10][&lt;0.975]0.0%;0.0%"/>
+    <numFmt numFmtId="247" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="248" formatCode="mmm\ yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="89">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -93,13 +260,497 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tms Rmn"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="50"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial MT"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="14"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="39"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="33"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="16"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -113,23 +764,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="26">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -143,42 +987,1962 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="50"/>
+      </left>
+      <right style="thick">
+        <color indexed="50"/>
+      </right>
+      <top style="thick">
+        <color indexed="50"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="50"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="620">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="20" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="6" applyNumberFormat="0">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="35" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="31" fillId="36" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="32" fillId="17" borderId="7" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="17" borderId="7" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="33" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="33" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="33" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="33" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="6" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="6" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="6" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="5" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="5" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="8" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="8" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="8" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="34" fillId="0" borderId="6">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="0" borderId="4"/>
+    <xf numFmtId="49" fontId="34" fillId="37" borderId="6">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4"/>
+    <xf numFmtId="187" fontId="35" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="188" fontId="34" fillId="0" borderId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="31" fillId="0" borderId="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="21" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="194" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="33" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="33" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="196" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="196" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="197" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="17" applyAlignment="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="191" fontId="34" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="198" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="198" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="199" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="199" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="40" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="17" applyAlignment="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="32" fillId="17" borderId="7" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="21" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="21" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="205" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="205" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="203" fontId="21" fillId="0" borderId="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="203" fontId="21" fillId="0" borderId="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="189" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="21" fillId="0" borderId="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="207" fontId="21" fillId="0" borderId="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="208" fontId="21" fillId="0" borderId="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="209" fontId="21" fillId="0" borderId="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="210" fontId="21" fillId="0" borderId="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="211" fontId="21" fillId="0" borderId="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="212" fontId="21" fillId="0" borderId="6">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="189" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="213" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="214" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="204" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="215" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="216" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="217" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="218" fontId="61" fillId="0" borderId="0"/>
+    <xf numFmtId="219" fontId="61" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="61" fillId="0" borderId="0"/>
+    <xf numFmtId="221" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="1" fontId="62" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="1" fontId="63" fillId="0" borderId="17">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="222" fontId="32" fillId="17" borderId="7" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="223" fontId="33" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="223" fontId="33" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="224" fontId="33" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="224" fontId="33" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="225" fontId="33" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="225" fontId="33" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="226" fontId="33" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="226" fontId="33" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="227" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="227" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="228" fontId="33" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="228" fontId="33" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="229" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="229" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="64" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="64" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="1" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="230" fontId="20" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="230" fontId="20" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="231" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="231" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="232" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="232" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="232" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="232" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="232" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="232" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="232" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="232" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="232" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="232" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="233" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21"/>
+    <xf numFmtId="205" fontId="34" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="234" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="66" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="67" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="67" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="235" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="235" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="235" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="235" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="4" applyFont="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="40" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="40" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="6">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="236" fontId="60" fillId="0" borderId="6">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="217" fontId="34" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="237" fontId="34" fillId="0" borderId="6">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="219" fontId="34" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="237" fontId="34" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="6">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="238" fontId="34" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="239" fontId="34" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="240" fontId="63" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="221" fontId="63" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="241" fontId="63" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="242" fontId="63" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="17">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="219" fontId="34" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="243" fontId="34" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="217" fontId="34" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="219" fontId="34" fillId="0" borderId="6">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="244" fontId="34" fillId="0" borderId="6">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="34" fillId="0" borderId="6">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="245" fontId="34" fillId="0" borderId="6">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="241" fontId="63" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="243" fontId="34" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="215" fontId="63" fillId="0" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="35" borderId="17" applyAlignment="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="41" borderId="6"/>
+    <xf numFmtId="189" fontId="83" fillId="42" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="246" fontId="32" fillId="17" borderId="7" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="4"/>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="6">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="247" fontId="12" fillId="8" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="247" fontId="12" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="247" fontId="12" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="247" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="12" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="12" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="248" fontId="14" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="619"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="620">
+    <cellStyle name="20% - Accent1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent1 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent4 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent1 3" xfId="18" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - Accent3 3" xfId="21" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - Accent4 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="40% - Accent6 3" xfId="26" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="60% - Accent1 3" xfId="28" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="60% - Accent3 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="60% - Accent4 3" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="60% - Accent6 3" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Accent1 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Accent1 3" xfId="38" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
-    <cellStyle name="Comma 6" xfId="5" xr:uid="{129E84B1-6D5F-814C-BDBF-60BED238871D}"/>
-    <cellStyle name="Currency 3" xfId="4" xr:uid="{731AE694-1003-CC42-A6E4-159D443988D8}"/>
+    <cellStyle name="Accent2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Accent2 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Accent3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Accent3 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Accent4 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Accent4 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Accent5 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Accent6 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="ADF" xfId="47" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="ADF 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Bad 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Bad 3" xfId="50" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Bit" xfId="51" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Bit 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Calc" xfId="53" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Calc 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Calculation 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Calculation 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Calculation 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Calculation 2 2 3" xfId="58" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Calculation 2 2 4" xfId="59" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Calculation 2 2 5" xfId="60" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Calculation 2 3" xfId="61" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Calculation 2 3 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Calculation 2 3 3" xfId="63" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Calculation 2 3 4" xfId="64" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Calculation 2 3 5" xfId="65" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Calculation 2 4" xfId="66" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Calculation 2 4 2" xfId="67" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Calculation 2 4 3" xfId="68" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Calculation 2 4 4" xfId="69" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Calculation 2 4 5" xfId="70" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Calculation 2 5" xfId="71" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Calculation 2 6" xfId="72" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Calculation 2 7" xfId="73" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Calculation 2 8" xfId="74" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Calculation 2 9" xfId="75" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Calculation 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Calculation 3 2" xfId="77" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Calculation 3 3" xfId="78" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Calculation 3 4" xfId="79" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Calculation 3 5" xfId="80" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Calculation 4" xfId="81" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Calculation 4 2" xfId="82" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Calculation 4 3" xfId="83" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Calculation 4 4" xfId="84" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Calculation 4 5" xfId="85" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Calculation 5" xfId="86" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Calculation 5 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Calculation 5 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Calculation 5 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Calculation 5 5" xfId="90" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Calculation 6" xfId="91" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Calculation 6 2" xfId="92" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Calculation 6 3" xfId="93" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Calculation 6 4" xfId="94" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Calculation 6 5" xfId="95" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Calculation 7" xfId="96" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="CCF" xfId="97" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="CCF 2" xfId="98" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="CDU1" xfId="99" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="CDU1 2" xfId="100" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="CDU1ADF" xfId="101" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="CDU1ADF 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="CDU1Atres" xfId="103" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="CDU1Atres 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="CDU1Kero" xfId="105" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="CDU1Kero 2" xfId="106" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="CDU1OHds" xfId="107" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="CDU1OHds 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="CDU1Tot" xfId="109" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="CDU1Tot 2" xfId="110" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="CDU2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="CDU2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="CDU2ADF" xfId="113" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="CDU2ADF 2" xfId="114" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="CDU2Atres" xfId="115" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="CDU2Atres 2" xfId="116" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="CDU2Kero" xfId="117" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="CDU2Kero 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="CDU2OHds" xfId="119" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="CDU2OHds 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="CDU2Tot" xfId="121" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="CDU2Tot 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Center" xfId="123" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Check Cell 2" xfId="124" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Comma  - Style1" xfId="125" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Comma  - Style2" xfId="126" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Comma  - Style3" xfId="127" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Comma  - Style4" xfId="128" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Comma  - Style5" xfId="129" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Comma  - Style6" xfId="130" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Comma  - Style7" xfId="131" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Comma  - Style8" xfId="132" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Comma [-]" xfId="133" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Comma [-] 2" xfId="134" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Comma [0M_Data Base_DllChange_Calculate" xfId="135" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Comma [1]" xfId="136" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Comma [1] 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Comma [2]" xfId="138" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Comma [2] 2" xfId="139" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Comma [Blank]" xfId="140" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Comma [Blank] 2" xfId="141" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Comma 2" xfId="142" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Comma 3" xfId="143" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Comma 4" xfId="144" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Comma 5" xfId="145" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Comma 6" xfId="4" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Comma0" xfId="146" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Comma0 2" xfId="147" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Consultant Unprotected" xfId="148" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="COPY" xfId="149" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Copy1_" xfId="150" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="CR_yld" xfId="151" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Crd_yld" xfId="152" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="CRF" xfId="153" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="CRF 2" xfId="154" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="CRNaph" xfId="155" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="CRNaph 2" xfId="156" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="CRPara" xfId="157" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="CRPara 2" xfId="158" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Crude" xfId="159" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Crude 2" xfId="160" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Currency [0]OChart1" xfId="161" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Currency [0]OChart1 2" xfId="162" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Currency [0]OData Base" xfId="163" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Currency [0]OData Base 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Currency [0]ORegister_Functions" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Currency 2" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Currency 3" xfId="6" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Currency 4" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Currency0" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Currency0 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="CurrencyOData Base_Heat Balance Options Dialog Box" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="CurrencyOPMSConsts_2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="CurrencyOVIEW" xfId="172" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="CurrencyOVIEW 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Curr_x001c_Ÿh" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Curr_x001c_Ÿh 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Date" xfId="176" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="DC" xfId="177" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="DC2 comment" xfId="178" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="DCC" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="DCMessage" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Dens" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="dp0,-" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="dp1" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="dp1,-" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="dp2,-" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="dp2,- 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="ElecEff" xfId="187" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Fixed" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Fixed 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="form" xfId="191" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Fuel" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Fuel 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Good 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Good 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="GreenDCC" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="H2_Bal" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Header1" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Header2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Heading 1 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Heading 1 2 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Heading 1 2 2 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Heading 1 2 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Heading 1 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Heading 2 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Heading 2 2 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Heading 2 2 2 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="Heading 2 2 3" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="Heading 2 3" xfId="209" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Heading 3 2" xfId="210" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Heading 3 3" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Heading 4 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Heading 4 3" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Hidden" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="highlight" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="HYD_yld" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="HYDSulp" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="HYDSulp 2" xfId="218" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="HYF" xfId="219" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="HYF 2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Input 2" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Input 2 2" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="Input 2 3" xfId="224" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="Input 2 4" xfId="225" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Input 2 5" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Input 3" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Input 3 2" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="Input 3 3" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Input 3 4" xfId="230" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="Input 3 5" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="Input 4" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="Input 4 2" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="Input 4 3" xfId="234" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="Input 4 4" xfId="235" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="Input 4 5" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="Input 5" xfId="237" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Input 5 2" xfId="238" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="Input 5 3" xfId="239" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="Input 5 4" xfId="240" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="Input 5 5" xfId="241" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="Input 6" xfId="242" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="Input 6 2" xfId="243" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Input 6 3" xfId="244" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="Input 6 4" xfId="245" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="Input 6 5" xfId="246" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="Input 7" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="Jet" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="Jet 2" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="250" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="LNum" xfId="251" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="LPG" xfId="252" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="LPG 2" xfId="253" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="LPress" xfId="254" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="Lub_yld" xfId="255" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="Lube" xfId="256" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="Lube 2" xfId="257" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="LubeC" xfId="258" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="LubeC 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="Millares [0]_Calc out" xfId="260" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="Millares_Calc out" xfId="261" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="Milliers [0]_TEMPLATE" xfId="262" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="Milliers_TEMPLATE" xfId="263" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="MNum" xfId="264" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="Mogas" xfId="265" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="Mogas 2" xfId="266" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="Moneda [0]_Calc out" xfId="267" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="Moneda_Calc out" xfId="268" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="Monétaire [0]_TEMPLATE" xfId="269" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="Monétaire_TEMPLATE" xfId="270" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="Ms_yld" xfId="271" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="Neutral 2" xfId="272" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="Neutral 3" xfId="273" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="New" xfId="274" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="New 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{E27E4820-CE2C-C649-81DD-E52E335BFCEC}"/>
-    <cellStyle name="Normal 9" xfId="6" xr:uid="{E90C775B-0188-8948-8C40-AF981589A32D}"/>
+    <cellStyle name="Normal - Style1" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="Normal 10" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="Normal 11" xfId="278" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="Normal 12" xfId="279" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Normal 13" xfId="280" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="Normal 14" xfId="281" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="Normal 15" xfId="282" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="Normal 16" xfId="283" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="Normal 17" xfId="284" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="Normal 18" xfId="285" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="Normal 19" xfId="286" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="Normal 2" xfId="287" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="Normal 2 2" xfId="288" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="Normal 20" xfId="289" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="Normal 21" xfId="290" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="Normal 22" xfId="291" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="Normal 23" xfId="292" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="Normal 24" xfId="293" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="Normal 25" xfId="294" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="Normal 26" xfId="295" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="Normal 27" xfId="296" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="Normal 28" xfId="297" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="Normal 29" xfId="298" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="Normal 3" xfId="299" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="Normal 30" xfId="300" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Normal 31" xfId="301" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="Normal 32" xfId="302" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="Normal 4" xfId="303" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="Normal 5" xfId="304" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="Normal 6" xfId="305" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Normal 7" xfId="306" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="Normal 8" xfId="307" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="Normal 9" xfId="5" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="Note 2" xfId="308" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="Note 2 2" xfId="309" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="Note 2 2 2" xfId="310" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="Note 2 2 3" xfId="311" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="Note 2 2 4" xfId="312" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="Note 2 3" xfId="313" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="Note 2 3 2" xfId="314" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="Note 2 3 3" xfId="315" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="Note 2 3 4" xfId="316" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="Note 2 4" xfId="317" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Note 2 4 2" xfId="318" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Note 2 4 3" xfId="319" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="Note 2 4 4" xfId="320" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="Note 2 5" xfId="321" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="Note 2 6" xfId="322" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Note 2 7" xfId="323" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="Note 3" xfId="324" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="Note 3 2" xfId="325" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="Note 3 3" xfId="326" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="Note 3 4" xfId="327" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Note 4" xfId="328" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Note 4 2" xfId="329" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="Note 4 3" xfId="330" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="Note 4 4" xfId="331" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Note 5" xfId="332" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Note 5 2" xfId="333" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="Note 5 3" xfId="334" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="Note 5 4" xfId="335" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Note 6" xfId="336" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="Note 6 2" xfId="337" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="Note 6 3" xfId="338" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="Note 6 4" xfId="339" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="Note 6 5" xfId="340" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="Note 7" xfId="341" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="NoZero" xfId="342" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="NoZero 2" xfId="343" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="NoZeroFixed1" xfId="344" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="NoZeroFixed1 2" xfId="345" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="NoZeroFixed2" xfId="346" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="NoZeroFixed2 2" xfId="347" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="Num1" xfId="348" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="Num1 2" xfId="349" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="Num2" xfId="350" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="Num2 2" xfId="351" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="NUMB1D" xfId="352" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="Output 2" xfId="353" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="Output 2 2" xfId="354" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="Output 2 2 2" xfId="355" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="Output 2 2 3" xfId="356" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="Output 2 2 4" xfId="357" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="Output 2 3" xfId="358" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="Output 2 3 2" xfId="359" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="Output 2 3 3" xfId="360" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="Output 2 3 4" xfId="361" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="Output 2 4" xfId="362" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="Output 2 4 2" xfId="363" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="Output 2 4 3" xfId="364" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="Output 2 4 4" xfId="365" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="Output 2 5" xfId="366" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="Output 2 6" xfId="367" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="Output 2 7" xfId="368" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="Output 3" xfId="369" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="Output 3 2" xfId="370" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="Output 3 3" xfId="371" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="Output 3 4" xfId="372" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="Output 4" xfId="373" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="Output 4 2" xfId="374" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="Output 4 3" xfId="375" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="Output 4 4" xfId="376" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="Output 5" xfId="377" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="Output 5 2" xfId="378" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="Output 5 3" xfId="379" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="Output 5 4" xfId="380" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="Output 6" xfId="381" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="Output 6 2" xfId="382" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="Output 6 3" xfId="383" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="Output 6 4" xfId="384" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="Output 6 5" xfId="385" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="Output 7" xfId="386" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="P $,(0)" xfId="387" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="P $,(2)" xfId="388" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="P, (0)" xfId="389" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="P, (1)" xfId="390" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="P, (2)" xfId="391" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="P, (3)" xfId="392" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="P, [0]" xfId="393" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="Percent 2" xfId="394" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="Percent 2 2" xfId="395" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="Percent 2 3" xfId="396" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="Percent 3" xfId="397" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="Percent 4" xfId="398" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="Percent 5" xfId="399" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="Plan" xfId="400" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="Plan 2" xfId="401" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="PPU" xfId="402" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="PPU 2" xfId="403" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="Pr Fixed (0)" xfId="404" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="Pr Fixed (1)" xfId="405" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="Pr Fixed (2)" xfId="406" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="Pr Fixed (3)" xfId="407" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="Pr, -0" xfId="408" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="Prot $,(0)" xfId="409" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="Prot $,(2)" xfId="410" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="Prot Fixed (1)" xfId="411" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="Prot, (0)" xfId="412" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="Prot, Fixed (2)" xfId="413" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="Prot, Fixed (3)" xfId="414" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="Protected" xfId="415" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="Protected 0" xfId="416" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="Protected 2" xfId="417" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="Protected_CASE CONTROLS" xfId="418" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="Quarter" xfId="419" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="RCU_yld" xfId="420" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="RCUCCR" xfId="421" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="RCUCCR 2" xfId="422" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="RCUDens" xfId="423" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="RCUDens 2" xfId="424" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="RCUKV100" xfId="425" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="RCUKV100 2" xfId="426" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="RCUNi" xfId="427" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="RCUNi 2" xfId="428" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="RCUNitr" xfId="429" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="RCUNitr 2" xfId="430" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="RCUSulp" xfId="431" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="RCUSulp 2" xfId="432" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="RCUVABP" xfId="433" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="RCUVABP 2" xfId="434" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="RCUVan" xfId="435" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="RCUVan 2" xfId="436" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="RedDC" xfId="437" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="Residue" xfId="438" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="Residue 2" xfId="439" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="S_Make" xfId="440" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="S_Make 2" xfId="441" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="S_Make_April 21 2004" xfId="442" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="S_Make_April 21 2004 2" xfId="443" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="S_Make_aprjul4" xfId="444" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="S_Make_aprjul4 2" xfId="445" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="S_Make_aprjul4a" xfId="446" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="S_Make_aprjul4a 2" xfId="447" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="S_Make_AugNov2" xfId="448" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="S_Make_AugNov2 2" xfId="449" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="S_Make_August 9 2006" xfId="450" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="S_Make_August 9 2006 2" xfId="451" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="S_Make_Exposure Management" xfId="452" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="S_Make_Exposure Management 2" xfId="453" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="S_Make_June 21 2006" xfId="454" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="S_Make_June 21 2006 2" xfId="455" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="S_Make_JunSep4" xfId="456" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="S_Make_JunSep4 2" xfId="457" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="S_Make_M1" xfId="458" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="S_Make_M1 2" xfId="459" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="S_Make_Pecking Order" xfId="460" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="S_Make_Pecking Order 2" xfId="461" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="S_Make_SepDec2b" xfId="462" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="S_Make_SepDec2b 2" xfId="463" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="Scientific" xfId="464" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="Shell" xfId="465" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="SPress" xfId="466" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="Standard_A" xfId="467" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="Style 1" xfId="468" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="Style 1 2" xfId="469" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="Style 22" xfId="470" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="Style 22 2" xfId="471" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="Style 23" xfId="472" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="Style 23 2" xfId="473" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="Style 24" xfId="474" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="Style 24 2" xfId="475" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="Style 26" xfId="476" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="Style 26 2" xfId="477" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="Style 27" xfId="478" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="Style 27 2" xfId="479" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="Style 47" xfId="480" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="Style 47 2" xfId="481" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="Style 48" xfId="482" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="Style 48 2" xfId="483" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="Supress" xfId="484" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="Text" xfId="485" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="Title 2" xfId="486" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="Title 3" xfId="487" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="Title Shade" xfId="488" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="Title Shade Average" xfId="489" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="Title Shade Caps" xfId="490" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="TorF" xfId="491" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="Total 2" xfId="492" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="Total 2 2" xfId="493" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="Total 2 2 2" xfId="494" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="Total 2 2 3" xfId="495" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="Total 2 2 4" xfId="496" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="Total 2 2 5" xfId="497" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="Total 2 3" xfId="498" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="Total 2 3 2" xfId="499" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="Total 2 3 3" xfId="500" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="Total 2 3 4" xfId="501" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="Total 2 3 5" xfId="502" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="Total 2 4" xfId="503" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="Total 2 4 2" xfId="504" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="Total 2 4 3" xfId="505" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="Total 2 4 4" xfId="506" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="Total 2 4 5" xfId="507" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="Total 2 5" xfId="508" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="Total 2 6" xfId="509" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="Total 2 7" xfId="510" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="Total 3" xfId="511" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="Total 3 2" xfId="512" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="Total 3 3" xfId="513" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="Total 3 4" xfId="514" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="Total 4" xfId="515" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="Total 4 2" xfId="516" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="Total 4 3" xfId="517" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="Total 4 4" xfId="518" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="Total 5" xfId="519" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="Total 5 2" xfId="520" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="Total 5 3" xfId="521" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="Total 5 4" xfId="522" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="Total 5 5" xfId="523" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="Total 6" xfId="524" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="UnitID" xfId="525" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="Unp $,(0)" xfId="526" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="Unp $,(2)" xfId="527" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="Unp Comma (0)" xfId="528" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="Unp Comma [0]" xfId="529" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="Unp Comma 0" xfId="530" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="Unp comment" xfId="531" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="Unp Fixed (0)" xfId="532" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="Unp Fixed (1)" xfId="533" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="Unp Fixed (2)" xfId="534" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="Unp Fixed (3)" xfId="535" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="Unp Fixed (4)" xfId="536" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="Unp Fixed-1" xfId="537" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="Unp Gen" xfId="538" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="Unp Name" xfId="539" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="Unp NegComma [0]" xfId="540" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="Unp Percent" xfId="541" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="Unp Pos$, [2]" xfId="542" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="Unp PosComma [0]" xfId="543" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="Unp PosFixed [1]" xfId="544" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="Unp PosFixed [2]" xfId="545" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="Unp PosFixed [3]" xfId="546" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="Unp PosFixed [4]" xfId="547" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="Unp PosPercent" xfId="548" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="Unp, -0" xfId="549" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="Unprotected" xfId="550" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="uopRpmL01" xfId="551" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="uopRpmL01 2" xfId="552" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="uopRpmL02" xfId="553" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="uopRpmL02 2" xfId="554" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="uopRpmL03" xfId="555" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="uopRpmL03 2" xfId="556" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="uopRpmL04" xfId="557" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="uopRpmL04 2" xfId="558" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
+    <cellStyle name="uopRpmL05" xfId="559" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="uopRpmL05 2" xfId="560" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="uopRpmL06" xfId="561" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
+    <cellStyle name="uopRpmL06 2" xfId="562" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="uopRpmL07" xfId="563" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
+    <cellStyle name="uopRpmL07 2" xfId="564" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="uopRpmL08" xfId="565" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
+    <cellStyle name="uopRpmL08 2" xfId="566" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
+    <cellStyle name="uopRpmL09" xfId="567" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
+    <cellStyle name="uopRpmL09 2" xfId="568" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
+    <cellStyle name="uopRpmL1" xfId="569" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
+    <cellStyle name="uopRpmL1 2" xfId="570" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
+    <cellStyle name="uopRpmL10" xfId="571" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
+    <cellStyle name="uopRpmL10 2" xfId="572" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
+    <cellStyle name="uopRpmL11" xfId="573" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
+    <cellStyle name="uopRpmL11 2" xfId="574" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="uopRpmL12" xfId="575" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
+    <cellStyle name="uopRpmL12 2" xfId="576" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="uopRpmL13" xfId="577" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
+    <cellStyle name="uopRpmL13 2" xfId="578" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
+    <cellStyle name="uopRpmL14" xfId="579" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="uopRpmL14 2" xfId="580" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="uopRpmL15" xfId="581" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
+    <cellStyle name="uopRpmL15 2" xfId="582" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
+    <cellStyle name="uopRpmL16" xfId="583" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="uopRpmL16 2" xfId="584" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="uopRpmL17" xfId="585" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
+    <cellStyle name="uopRpmL17 2" xfId="586" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
+    <cellStyle name="uopRpmL18" xfId="587" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="uopRpmL18 2" xfId="588" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="uopRpmL19" xfId="589" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
+    <cellStyle name="uopRpmL19 2" xfId="590" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="uopRpmL2" xfId="591" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
+    <cellStyle name="uopRpmL2 2" xfId="592" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
+    <cellStyle name="uopRpmL20" xfId="593" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
+    <cellStyle name="uopRpmL20 2" xfId="594" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
+    <cellStyle name="uopRpmL3" xfId="595" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
+    <cellStyle name="uopRpmL3 2" xfId="596" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
+    <cellStyle name="uopRpmL4" xfId="597" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
+    <cellStyle name="uopRpmL4 2" xfId="598" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="uopRpmL5" xfId="599" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
+    <cellStyle name="uopRpmL5 2" xfId="600" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="uopRpmL6" xfId="601" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
+    <cellStyle name="uopRpmL6 2" xfId="602" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="uopRpmL7" xfId="603" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
+    <cellStyle name="uopRpmL7 2" xfId="604" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="uopRpmL8" xfId="605" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
+    <cellStyle name="uopRpmL8 2" xfId="606" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
+    <cellStyle name="uopRpmL9" xfId="607" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="uopRpmL9 2" xfId="608" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
+    <cellStyle name="uopRpmLE" xfId="609" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
+    <cellStyle name="uopRpmLE 2" xfId="610" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
+    <cellStyle name="User Entry" xfId="611" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="User Entry 2" xfId="612" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="User_Free" xfId="613" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
+    <cellStyle name="Value_Out_Of_Range" xfId="614" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="Vol_yld" xfId="615" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="Warning Text 2" xfId="616" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="YellowDCC" xfId="617" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
+    <cellStyle name="YorN" xfId="618" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -193,10 +2957,3351 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3915920956072046E-2"/>
+          <c:y val="2.1009359578948582E-2"/>
+          <c:w val="0.82746236473493162"/>
+          <c:h val="0.81804899387576557"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fig E w ARGUS'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>  Volume of Credits Transacted (MT)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="63500">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Fig E w ARGUS'!$A$2:$B$145</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="144"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>D</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fig E w ARGUS'!$E$2:$E$145</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="144"/>
+                <c:pt idx="0">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>243000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>107000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>285000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>301000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>207000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>296000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>126000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>148000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>69000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>164000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>151000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>322000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>224000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>129000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>435000</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="#,##0">
+                  <c:v>723000</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>206000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>139000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>679000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>283000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>229000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>429000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>452000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>599000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>347000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>794000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1060000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>390000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>323000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>591000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>616000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>366000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>765000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>565000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>595000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1326000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>745000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1143000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1451000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>543000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>574000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1181000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>927000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>847000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1093000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1056000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>722000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1668000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1172000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1345000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2205000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>548000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>747000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1677000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1299000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>408000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>875000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1574000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>929000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1176000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1990000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>705000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2216000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1895000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>581000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2312000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4098000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>470000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1059000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2509000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>857000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1553000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2237000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1207000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2997000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2176000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1019000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3490000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3445000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>791000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1873000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2125000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>709000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1518000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3782000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1125000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3217000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3389000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1550000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3301000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4584000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>861000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1268000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3680000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1624000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1759000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5005000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2379000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3001000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4564000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1293000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2702000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5596000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1684000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2470000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4347000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2044000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1993000</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4661000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2672000</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6161000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6196000</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1911000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3999000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6271000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1577000</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1543000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6283000</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2155000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3022000</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7095000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2224000</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7522000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9886-4113-98B4-F91D31052E60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="189"/>
+        <c:axId val="48185344"/>
+        <c:axId val="48174976"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fig E w ARGUS'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARB Monthly Average Credit Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500" cap="sq">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9886-4113-98B4-F91D31052E60}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Fig E w ARGUS'!$A$2:$B$145</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="144"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>D</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fig E w ARGUS'!$D$2:$D$145</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="144"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9886-4113-98B4-F91D31052E60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fig E w ARGUS'!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Fig E w ARGUS'!$A$2:$B$145</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="144"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>D</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fig E w ARGUS'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9886-4113-98B4-F91D31052E60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fig E w ARGUS'!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="12700"/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Fig E w ARGUS'!$A$2:$B$145</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="144"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>J</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>O</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>D</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fig E w ARGUS'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9886-4113-98B4-F91D31052E60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="47904640"/>
+        <c:axId val="48173056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="47904640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48173056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="48173056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Credit Price  ($/Metric  Ton)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47904640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="48174976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Volume Transacted (metric tons CO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>e)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.96528777024020362"/>
+              <c:y val="0.17040277372735815"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48185344"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="48185344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48174976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25408664258254021"/>
+          <c:y val="5.220650659408315E-2"/>
+          <c:w val="0.30408028541455245"/>
+          <c:h val="0.20639229140425372"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>640839</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>536064</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>186976</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -204,44 +6309,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -269,31 +6374,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -321,26 +6409,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -349,1705 +6420,2411 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C92663-1AD4-9C4E-81FD-7074466FA71C}">
-  <dimension ref="A1:C139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="9"/>
+    <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:9" ht="76">
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16">
+      <c r="A2" s="28">
+        <v>2013</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13">
         <v>41275</v>
       </c>
-      <c r="B2" s="5">
+      <c r="D2" s="7">
         <v>22</v>
       </c>
-      <c r="C2" s="6">
+      <c r="E2" s="10">
         <v>24000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:9" ht="16">
+      <c r="A3" s="28"/>
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13">
         <v>41306</v>
       </c>
-      <c r="B3" s="5">
+      <c r="D3" s="7">
         <v>27</v>
       </c>
-      <c r="C3" s="6">
+      <c r="E3" s="10">
         <v>36000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:9" ht="16">
+      <c r="A4" s="28"/>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13">
         <v>41334</v>
       </c>
-      <c r="B4" s="5">
+      <c r="D4" s="7">
         <v>34</v>
       </c>
-      <c r="C4" s="6">
+      <c r="E4" s="10">
         <v>48000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    <row r="5" spans="1:9" ht="16">
+      <c r="A5" s="28"/>
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13">
         <v>41365</v>
       </c>
-      <c r="B5" s="5">
+      <c r="D5" s="7">
         <v>35</v>
       </c>
-      <c r="C5" s="6">
+      <c r="E5" s="10">
         <v>42000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:9" ht="16">
+      <c r="A6" s="28"/>
+      <c r="B6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13">
         <v>41395</v>
       </c>
-      <c r="B6" s="5">
+      <c r="D6" s="7">
         <v>45</v>
       </c>
-      <c r="C6" s="6">
+      <c r="E6" s="10">
         <v>7000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:9" ht="16">
+      <c r="A7" s="28"/>
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13">
         <v>41426</v>
       </c>
-      <c r="B7" s="5">
+      <c r="D7" s="7">
         <v>51</v>
       </c>
-      <c r="C7" s="6">
+      <c r="E7" s="10">
         <v>52000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:9" ht="16">
+      <c r="A8" s="28"/>
+      <c r="B8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13">
         <v>41456</v>
       </c>
-      <c r="B8" s="5">
+      <c r="D8" s="7">
         <v>58</v>
       </c>
-      <c r="C8" s="6">
+      <c r="E8" s="10">
         <v>82000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:9" ht="16">
+      <c r="A9" s="28"/>
+      <c r="B9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13">
         <v>41487</v>
       </c>
-      <c r="B9" s="5">
+      <c r="D9" s="7">
         <v>67</v>
       </c>
-      <c r="C9" s="6">
+      <c r="E9" s="10">
         <v>66000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="10" spans="1:9" ht="16">
+      <c r="A10" s="28"/>
+      <c r="B10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13">
         <v>41518</v>
       </c>
-      <c r="B10" s="5">
+      <c r="D10" s="7">
         <v>54</v>
       </c>
-      <c r="C10" s="6">
+      <c r="E10" s="10">
         <v>243000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+    <row r="11" spans="1:9" ht="16">
+      <c r="A11" s="28"/>
+      <c r="B11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13">
         <v>41548</v>
       </c>
-      <c r="B11" s="5">
+      <c r="D11" s="7">
         <v>63</v>
       </c>
-      <c r="C11" s="6">
+      <c r="E11" s="10">
         <v>60000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+    <row r="12" spans="1:9" ht="16">
+      <c r="A12" s="28"/>
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13">
         <v>41579</v>
       </c>
-      <c r="B12" s="5">
+      <c r="D12" s="7">
         <v>71</v>
       </c>
-      <c r="C12" s="6">
+      <c r="E12" s="10">
         <v>210000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+    <row r="13" spans="1:9" ht="16">
+      <c r="A13" s="28"/>
+      <c r="B13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13">
         <v>41609</v>
       </c>
-      <c r="B13" s="5">
+      <c r="D13" s="7">
         <v>79</v>
       </c>
-      <c r="C13" s="6">
+      <c r="E13" s="10">
         <v>18000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="14" spans="1:9" ht="16">
+      <c r="A14" s="28">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="13">
         <v>41640</v>
       </c>
-      <c r="B14" s="5">
+      <c r="D14" s="7">
         <v>51</v>
       </c>
-      <c r="C14" s="6">
+      <c r="E14" s="10">
         <v>43000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+    <row r="15" spans="1:9" ht="16">
+      <c r="A15" s="28"/>
+      <c r="B15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="13">
         <v>41671</v>
       </c>
-      <c r="B15" s="5">
+      <c r="D15" s="7">
         <v>48</v>
       </c>
-      <c r="C15" s="6">
+      <c r="E15" s="10">
         <v>53000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+    <row r="16" spans="1:9" ht="16">
+      <c r="A16" s="28"/>
+      <c r="B16" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="13">
         <v>41699</v>
       </c>
-      <c r="B16" s="5">
+      <c r="D16" s="7">
         <v>54</v>
       </c>
-      <c r="C16" s="6">
+      <c r="E16" s="10">
         <v>72000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+    <row r="17" spans="1:5" ht="16">
+      <c r="A17" s="28"/>
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="13">
         <v>41730</v>
       </c>
-      <c r="B17" s="5">
+      <c r="D17" s="7">
         <v>44</v>
       </c>
-      <c r="C17" s="6">
+      <c r="E17" s="10">
         <v>120000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+    <row r="18" spans="1:5" ht="16">
+      <c r="A18" s="28"/>
+      <c r="B18" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13">
         <v>41760</v>
       </c>
-      <c r="B18" s="5">
+      <c r="D18" s="7">
         <v>33</v>
       </c>
-      <c r="C18" s="6">
+      <c r="E18" s="10">
         <v>54000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+    <row r="19" spans="1:5" ht="16">
+      <c r="A19" s="28"/>
+      <c r="B19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="13">
         <v>41791</v>
       </c>
-      <c r="B19" s="5">
+      <c r="D19" s="7">
         <v>42</v>
       </c>
-      <c r="C19" s="6">
+      <c r="E19" s="10">
         <v>82000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+    <row r="20" spans="1:5" ht="16">
+      <c r="A20" s="28"/>
+      <c r="B20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="13">
         <v>41821</v>
       </c>
-      <c r="B20" s="5">
+      <c r="D20" s="7">
         <v>28</v>
       </c>
-      <c r="C20" s="6">
+      <c r="E20" s="10">
         <v>107000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+    <row r="21" spans="1:5" ht="16">
+      <c r="A21" s="28"/>
+      <c r="B21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="13">
         <v>41852</v>
       </c>
-      <c r="B21" s="5">
+      <c r="D21" s="7">
         <v>29</v>
       </c>
-      <c r="C21" s="6">
+      <c r="E21" s="10">
         <v>285000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+    <row r="22" spans="1:5" ht="16">
+      <c r="A22" s="28"/>
+      <c r="B22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="13">
         <v>41883</v>
       </c>
-      <c r="B22" s="5">
+      <c r="D22" s="7">
         <v>26</v>
       </c>
-      <c r="C22" s="6">
+      <c r="E22" s="10">
         <v>301000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+    <row r="23" spans="1:5" ht="16">
+      <c r="A23" s="28"/>
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="13">
         <v>41913</v>
       </c>
-      <c r="B23" s="5">
+      <c r="D23" s="7">
         <v>26</v>
       </c>
-      <c r="C23" s="6">
+      <c r="E23" s="10">
         <v>207000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+    <row r="24" spans="1:5" ht="16">
+      <c r="A24" s="28"/>
+      <c r="B24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="13">
         <v>41944</v>
       </c>
-      <c r="B24" s="5">
+      <c r="D24" s="7">
         <v>26</v>
       </c>
-      <c r="C24" s="6">
+      <c r="E24" s="10">
         <v>61000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+    <row r="25" spans="1:5" ht="16">
+      <c r="A25" s="28"/>
+      <c r="B25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="13">
         <v>41974</v>
       </c>
-      <c r="B25" s="5">
+      <c r="D25" s="7">
         <v>26</v>
       </c>
-      <c r="C25" s="6">
+      <c r="E25" s="10">
         <v>296000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+    <row r="26" spans="1:5" ht="16">
+      <c r="A26" s="28">
+        <v>2015</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="13">
         <v>42005</v>
       </c>
-      <c r="B26" s="5">
+      <c r="D26" s="7">
         <v>25</v>
       </c>
-      <c r="C26" s="6">
+      <c r="E26" s="10">
         <v>126000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+    <row r="27" spans="1:5" ht="16">
+      <c r="A27" s="28"/>
+      <c r="B27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="13">
         <v>42036</v>
       </c>
-      <c r="B27" s="5">
+      <c r="D27" s="7">
         <v>24</v>
       </c>
-      <c r="C27" s="6">
+      <c r="E27" s="10">
         <v>148000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+    <row r="28" spans="1:5" ht="16">
+      <c r="A28" s="28"/>
+      <c r="B28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="13">
         <v>42064</v>
       </c>
-      <c r="B28" s="5">
+      <c r="D28" s="7">
         <v>23</v>
       </c>
-      <c r="C28" s="6">
+      <c r="E28" s="10">
         <v>69000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+    <row r="29" spans="1:5" ht="16">
+      <c r="A29" s="28"/>
+      <c r="B29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="13">
         <v>42095</v>
       </c>
-      <c r="B29" s="5">
+      <c r="D29" s="7">
         <v>22</v>
       </c>
-      <c r="C29" s="6">
+      <c r="E29" s="10">
         <v>164000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+    <row r="30" spans="1:5" ht="16">
+      <c r="A30" s="28"/>
+      <c r="B30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="13">
         <v>42125</v>
       </c>
-      <c r="B30" s="5">
+      <c r="D30" s="7">
         <v>22</v>
       </c>
-      <c r="C30" s="6">
+      <c r="E30" s="10">
         <v>160000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+    <row r="31" spans="1:5" ht="16">
+      <c r="A31" s="28"/>
+      <c r="B31" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="13">
         <v>42169</v>
       </c>
-      <c r="B31" s="5">
+      <c r="D31" s="7">
         <v>28</v>
       </c>
-      <c r="C31" s="6">
+      <c r="E31" s="10">
         <v>151000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+    <row r="32" spans="1:5" ht="16">
+      <c r="A32" s="28"/>
+      <c r="B32" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="13">
         <v>42199</v>
       </c>
-      <c r="B32" s="5">
+      <c r="D32" s="7">
         <v>44</v>
       </c>
-      <c r="C32" s="6">
+      <c r="E32" s="10">
         <v>322000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+    <row r="33" spans="1:5" ht="16">
+      <c r="A33" s="28"/>
+      <c r="B33" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="13">
         <v>42230</v>
       </c>
-      <c r="B33" s="5">
+      <c r="D33" s="7">
         <v>57</v>
       </c>
-      <c r="C33" s="6">
+      <c r="E33" s="10">
         <v>200000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+    <row r="34" spans="1:5" ht="16">
+      <c r="A34" s="28"/>
+      <c r="B34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="13">
         <v>42261</v>
       </c>
-      <c r="B34" s="5">
+      <c r="D34" s="7">
         <v>64</v>
       </c>
-      <c r="C34" s="6">
+      <c r="E34" s="10">
         <v>224000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+    <row r="35" spans="1:5" ht="16">
+      <c r="A35" s="28"/>
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="13">
         <v>42291</v>
       </c>
-      <c r="B35" s="5">
+      <c r="D35" s="7">
         <v>60</v>
       </c>
-      <c r="C35" s="6">
+      <c r="E35" s="10">
         <v>129000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+    <row r="36" spans="1:5" ht="16">
+      <c r="A36" s="28"/>
+      <c r="B36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="13">
         <v>42322</v>
       </c>
-      <c r="B36" s="5">
+      <c r="D36" s="7">
         <v>86</v>
       </c>
-      <c r="C36" s="6">
+      <c r="E36" s="10">
         <v>435000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+    <row r="37" spans="1:5" ht="16">
+      <c r="A37" s="28"/>
+      <c r="B37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="13">
         <v>42352</v>
       </c>
-      <c r="B37" s="5">
+      <c r="D37" s="7">
         <v>96</v>
       </c>
-      <c r="C37" s="7">
+      <c r="E37" s="11">
         <v>723000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+    <row r="38" spans="1:5" ht="16">
+      <c r="A38" s="28">
+        <v>2016</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="13">
         <v>42383</v>
       </c>
-      <c r="B38" s="5">
+      <c r="D38" s="7">
         <v>105</v>
       </c>
-      <c r="C38" s="8">
+      <c r="E38" s="12">
         <v>206000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+    <row r="39" spans="1:5" ht="16">
+      <c r="A39" s="28"/>
+      <c r="B39" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="13">
         <v>42414</v>
       </c>
-      <c r="B39" s="9">
+      <c r="D39" s="8">
         <v>122</v>
       </c>
-      <c r="C39" s="6">
+      <c r="E39" s="10">
         <v>139000</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+    <row r="40" spans="1:5" ht="16">
+      <c r="A40" s="28"/>
+      <c r="B40" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="13">
         <v>42443</v>
       </c>
-      <c r="B40" s="9">
+      <c r="D40" s="8">
         <v>116</v>
       </c>
-      <c r="C40" s="6">
+      <c r="E40" s="10">
         <v>679000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+    <row r="41" spans="1:5" ht="16">
+      <c r="A41" s="28"/>
+      <c r="B41" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="13">
         <v>42474</v>
       </c>
-      <c r="B41" s="9">
+      <c r="D41" s="8">
         <v>119</v>
       </c>
-      <c r="C41" s="6">
+      <c r="E41" s="10">
         <v>283000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+    <row r="42" spans="1:5" ht="16">
+      <c r="A42" s="28"/>
+      <c r="B42" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="13">
         <v>42504</v>
       </c>
-      <c r="B42" s="9">
+      <c r="D42" s="8">
         <v>119</v>
       </c>
-      <c r="C42" s="6">
+      <c r="E42" s="10">
         <v>229000</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+    <row r="43" spans="1:5" ht="16">
+      <c r="A43" s="28"/>
+      <c r="B43" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="13">
         <v>42537</v>
       </c>
-      <c r="B43" s="9">
+      <c r="D43" s="8">
         <v>112</v>
       </c>
-      <c r="C43" s="6">
+      <c r="E43" s="10">
         <v>429000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+    <row r="44" spans="1:5" ht="16">
+      <c r="A44" s="28"/>
+      <c r="B44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="13">
         <v>42567</v>
       </c>
-      <c r="B44" s="9">
+      <c r="D44" s="8">
         <v>92</v>
       </c>
-      <c r="C44" s="6">
+      <c r="E44" s="10">
         <v>452000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+    <row r="45" spans="1:5" ht="16">
+      <c r="A45" s="28"/>
+      <c r="B45" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="13">
         <v>42598</v>
       </c>
-      <c r="B45" s="9">
+      <c r="D45" s="8">
         <v>75</v>
       </c>
-      <c r="C45" s="6">
+      <c r="E45" s="10">
         <v>145000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+    <row r="46" spans="1:5" ht="16">
+      <c r="A46" s="28"/>
+      <c r="B46" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="13">
         <v>42629</v>
       </c>
-      <c r="B46" s="9">
+      <c r="D46" s="8">
         <v>98.4</v>
       </c>
-      <c r="C46" s="6">
+      <c r="E46" s="10">
         <v>599000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+    <row r="47" spans="1:5" ht="16">
+      <c r="A47" s="28"/>
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="13">
         <v>42659</v>
       </c>
-      <c r="B47" s="9">
+      <c r="D47" s="8">
         <v>89</v>
       </c>
-      <c r="C47" s="6">
+      <c r="E47" s="10">
         <v>347000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+    <row r="48" spans="1:5" ht="16">
+      <c r="A48" s="28"/>
+      <c r="B48" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="13">
         <v>42690</v>
       </c>
-      <c r="B48" s="9">
+      <c r="D48" s="8">
         <v>100</v>
       </c>
-      <c r="C48" s="6">
+      <c r="E48" s="10">
         <v>794000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+    <row r="49" spans="1:5" ht="16">
+      <c r="A49" s="28"/>
+      <c r="B49" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="13">
         <v>42720</v>
       </c>
-      <c r="B49" s="9">
+      <c r="D49" s="8">
         <v>89</v>
       </c>
-      <c r="C49" s="6">
+      <c r="E49" s="10">
         <v>1060000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+    <row r="50" spans="1:5" ht="16">
+      <c r="A50" s="28">
+        <v>2017</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="13">
         <v>42752</v>
       </c>
-      <c r="B50" s="9">
+      <c r="D50" s="8">
         <v>90</v>
       </c>
-      <c r="C50" s="6">
+      <c r="E50" s="10">
         <v>390000</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+    <row r="51" spans="1:5" ht="16">
+      <c r="A51" s="28"/>
+      <c r="B51" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="13">
         <v>42783</v>
       </c>
-      <c r="B51" s="9">
+      <c r="D51" s="8">
         <v>93</v>
       </c>
-      <c r="C51" s="6">
+      <c r="E51" s="10">
         <v>323000</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+    <row r="52" spans="1:5" ht="16">
+      <c r="A52" s="28"/>
+      <c r="B52" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="13">
         <v>42795</v>
       </c>
-      <c r="B52" s="9">
+      <c r="D52" s="8">
         <v>93</v>
       </c>
-      <c r="C52" s="6">
+      <c r="E52" s="10">
         <v>591000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+    <row r="53" spans="1:5" ht="16">
+      <c r="A53" s="28"/>
+      <c r="B53" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="13">
         <v>42826</v>
       </c>
-      <c r="B53" s="9">
+      <c r="D53" s="8">
         <v>87</v>
       </c>
-      <c r="C53" s="6">
+      <c r="E53" s="10">
         <v>616000</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+    <row r="54" spans="1:5" ht="16">
+      <c r="A54" s="28"/>
+      <c r="B54" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="13">
         <v>42856</v>
       </c>
-      <c r="B54" s="9">
+      <c r="D54" s="8">
         <v>80</v>
       </c>
-      <c r="C54" s="6">
+      <c r="E54" s="10">
         <v>366000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+    <row r="55" spans="1:5" ht="16">
+      <c r="A55" s="28"/>
+      <c r="B55" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="13">
         <v>42887</v>
       </c>
-      <c r="B55" s="9">
+      <c r="D55" s="8">
         <v>77</v>
       </c>
-      <c r="C55" s="6">
+      <c r="E55" s="10">
         <v>765000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+    <row r="56" spans="1:5" ht="16">
+      <c r="A56" s="28"/>
+      <c r="B56" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="13">
         <v>42917</v>
       </c>
-      <c r="B56" s="9">
+      <c r="D56" s="8">
         <v>76</v>
       </c>
-      <c r="C56" s="6">
+      <c r="E56" s="10">
         <v>565000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+    <row r="57" spans="1:5" ht="16">
+      <c r="A57" s="28"/>
+      <c r="B57" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="13">
         <v>42948</v>
       </c>
-      <c r="B57" s="9">
+      <c r="D57" s="8">
         <v>85</v>
       </c>
-      <c r="C57" s="6">
+      <c r="E57" s="10">
         <v>595000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+    <row r="58" spans="1:5" ht="16">
+      <c r="A58" s="28"/>
+      <c r="B58" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="13">
         <v>42979</v>
       </c>
-      <c r="B58" s="9">
+      <c r="D58" s="8">
         <v>88</v>
       </c>
-      <c r="C58" s="6">
+      <c r="E58" s="10">
         <v>1326000</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
+    <row r="59" spans="1:5" ht="16">
+      <c r="A59" s="28"/>
+      <c r="B59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="13">
         <v>43009</v>
       </c>
-      <c r="B59" s="9">
+      <c r="D59" s="8">
         <v>91</v>
       </c>
-      <c r="C59" s="6">
+      <c r="E59" s="10">
         <v>745000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+    <row r="60" spans="1:5" ht="16">
+      <c r="A60" s="28"/>
+      <c r="B60" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="13">
         <v>43040</v>
       </c>
-      <c r="B60" s="9">
+      <c r="D60" s="8">
         <v>94</v>
       </c>
-      <c r="C60" s="6">
+      <c r="E60" s="10">
         <v>1143000</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+    <row r="61" spans="1:5" ht="16">
+      <c r="A61" s="28"/>
+      <c r="B61" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="13">
         <v>43070</v>
       </c>
-      <c r="B61" s="9">
+      <c r="D61" s="8">
         <v>101</v>
       </c>
-      <c r="C61" s="6">
+      <c r="E61" s="10">
         <v>1451000</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+    <row r="62" spans="1:5" ht="16">
+      <c r="A62" s="28">
+        <v>2018</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="13">
         <v>43101</v>
       </c>
-      <c r="B62" s="9">
+      <c r="D62" s="8">
         <v>115</v>
       </c>
-      <c r="C62" s="6">
+      <c r="E62" s="10">
         <v>543000</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+    <row r="63" spans="1:5" ht="16">
+      <c r="A63" s="28"/>
+      <c r="B63" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="13">
         <v>43132</v>
       </c>
-      <c r="B63" s="9">
+      <c r="D63" s="8">
         <v>137</v>
       </c>
-      <c r="C63" s="6">
+      <c r="E63" s="10">
         <v>574000</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+    <row r="64" spans="1:5" ht="16">
+      <c r="A64" s="28"/>
+      <c r="B64" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="13">
         <v>43160</v>
       </c>
-      <c r="B64" s="9">
+      <c r="D64" s="8">
         <v>122</v>
       </c>
-      <c r="C64" s="6">
+      <c r="E64" s="10">
         <v>1181000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+    <row r="65" spans="1:5" ht="16">
+      <c r="A65" s="28"/>
+      <c r="B65" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="13">
         <v>43191</v>
       </c>
-      <c r="B65" s="9">
+      <c r="D65" s="8">
         <v>129</v>
       </c>
-      <c r="C65" s="6">
+      <c r="E65" s="10">
         <v>927000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+    <row r="66" spans="1:5" ht="16">
+      <c r="A66" s="28"/>
+      <c r="B66" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="13">
         <v>43221</v>
       </c>
-      <c r="B66" s="9">
+      <c r="D66" s="8">
         <v>140</v>
       </c>
-      <c r="C66" s="6">
+      <c r="E66" s="10">
         <v>847000</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+    <row r="67" spans="1:5" ht="16">
+      <c r="A67" s="28"/>
+      <c r="B67" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="13">
         <v>43252</v>
       </c>
-      <c r="B67" s="9">
+      <c r="D67" s="8">
         <v>154</v>
       </c>
-      <c r="C67" s="6">
+      <c r="E67" s="10">
         <v>1093000</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+    <row r="68" spans="1:5" ht="16">
+      <c r="A68" s="28"/>
+      <c r="B68" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="13">
         <v>43282</v>
       </c>
-      <c r="B68" s="9">
+      <c r="D68" s="8">
         <v>169</v>
       </c>
-      <c r="C68" s="6">
+      <c r="E68" s="10">
         <v>1056000</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+    <row r="69" spans="1:5" ht="16">
+      <c r="A69" s="28"/>
+      <c r="B69" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="13">
         <v>43313</v>
       </c>
-      <c r="B69" s="9">
+      <c r="D69" s="8">
         <v>179</v>
       </c>
-      <c r="C69" s="6">
+      <c r="E69" s="10">
         <v>722000</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+    <row r="70" spans="1:5" ht="16">
+      <c r="A70" s="28"/>
+      <c r="B70" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="13">
         <v>43344</v>
       </c>
-      <c r="B70" s="9">
+      <c r="D70" s="8">
         <v>171</v>
       </c>
-      <c r="C70" s="6">
+      <c r="E70" s="10">
         <v>1668000</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+    <row r="71" spans="1:5" ht="16">
+      <c r="A71" s="28"/>
+      <c r="B71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="13">
         <v>43374</v>
       </c>
-      <c r="B71" s="9">
+      <c r="D71" s="8">
         <v>181</v>
       </c>
-      <c r="C71" s="6">
+      <c r="E71" s="10">
         <v>1172000</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+    <row r="72" spans="1:5" ht="16">
+      <c r="A72" s="28"/>
+      <c r="B72" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="13">
         <v>43405</v>
       </c>
-      <c r="B72" s="9">
+      <c r="D72" s="8">
         <v>177</v>
       </c>
-      <c r="C72" s="6">
+      <c r="E72" s="10">
         <v>1345000</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+    <row r="73" spans="1:5" ht="16">
+      <c r="A73" s="28"/>
+      <c r="B73" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="13">
         <v>43435</v>
       </c>
-      <c r="B73" s="9">
+      <c r="D73" s="8">
         <v>183</v>
       </c>
-      <c r="C73" s="6">
+      <c r="E73" s="10">
         <v>2205000</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+    <row r="74" spans="1:5" ht="16">
+      <c r="A74" s="28">
+        <v>2019</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="13">
         <v>43466</v>
       </c>
-      <c r="B74" s="9">
+      <c r="D74" s="8">
         <v>190</v>
       </c>
-      <c r="C74" s="6">
+      <c r="E74" s="10">
         <v>548000</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
+    <row r="75" spans="1:5" ht="16">
+      <c r="A75" s="28"/>
+      <c r="B75" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="13">
         <v>43497</v>
       </c>
-      <c r="B75" s="9">
+      <c r="D75" s="8">
         <v>186</v>
       </c>
-      <c r="C75" s="6">
+      <c r="E75" s="10">
         <v>747000</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
+    <row r="76" spans="1:5" ht="16">
+      <c r="A76" s="28"/>
+      <c r="B76" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="13">
         <v>43525</v>
       </c>
-      <c r="B76" s="9">
+      <c r="D76" s="8">
         <v>188</v>
       </c>
-      <c r="C76" s="6">
+      <c r="E76" s="10">
         <v>1677000</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
+    <row r="77" spans="1:5" ht="16">
+      <c r="A77" s="28"/>
+      <c r="B77" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="13">
         <v>43556</v>
       </c>
-      <c r="B77" s="9">
+      <c r="D77" s="8">
         <v>180</v>
       </c>
-      <c r="C77" s="6">
+      <c r="E77" s="10">
         <v>1299000</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
+    <row r="78" spans="1:5" ht="16">
+      <c r="A78" s="28"/>
+      <c r="B78" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="13">
         <v>43586</v>
       </c>
-      <c r="B78" s="9">
+      <c r="D78" s="8">
         <v>185</v>
       </c>
-      <c r="C78" s="6">
+      <c r="E78" s="10">
         <v>408000</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
+    <row r="79" spans="1:5" ht="16">
+      <c r="A79" s="28"/>
+      <c r="B79" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="13">
         <v>43617</v>
       </c>
-      <c r="B79" s="9">
+      <c r="D79" s="8">
         <v>190</v>
       </c>
-      <c r="C79" s="6">
+      <c r="E79" s="10">
         <v>875000</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
+    <row r="80" spans="1:5" ht="16">
+      <c r="A80" s="28"/>
+      <c r="B80" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="13">
         <v>43647</v>
       </c>
-      <c r="B80" s="9">
+      <c r="D80" s="8">
         <v>193</v>
       </c>
-      <c r="C80" s="6">
+      <c r="E80" s="10">
         <v>1574000</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
+    <row r="81" spans="1:5" ht="16">
+      <c r="A81" s="28"/>
+      <c r="B81" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="13">
         <v>43678</v>
       </c>
-      <c r="B81" s="9">
+      <c r="D81" s="8">
         <v>194</v>
       </c>
-      <c r="C81" s="6">
+      <c r="E81" s="10">
         <v>929000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
+    <row r="82" spans="1:5" ht="16">
+      <c r="A82" s="28"/>
+      <c r="B82" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="13">
         <v>43709</v>
       </c>
-      <c r="B82" s="9">
+      <c r="D82" s="8">
         <v>195</v>
       </c>
-      <c r="C82" s="6">
+      <c r="E82" s="10">
         <v>1176000</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
+    <row r="83" spans="1:5" ht="16">
+      <c r="A83" s="28"/>
+      <c r="B83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="13">
         <v>43739</v>
       </c>
-      <c r="B83" s="9">
+      <c r="D83" s="8">
         <v>195</v>
       </c>
-      <c r="C83" s="6">
+      <c r="E83" s="10">
         <v>1990000</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
+    <row r="84" spans="1:5" ht="16">
+      <c r="A84" s="28"/>
+      <c r="B84" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="13">
         <v>43770</v>
       </c>
-      <c r="B84" s="9">
+      <c r="D84" s="8">
         <v>195</v>
       </c>
-      <c r="C84" s="6">
+      <c r="E84" s="10">
         <v>705000</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
+    <row r="85" spans="1:5" ht="16">
+      <c r="A85" s="28"/>
+      <c r="B85" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="13">
         <v>43800</v>
       </c>
-      <c r="B85" s="9">
+      <c r="D85" s="8">
         <v>197</v>
       </c>
-      <c r="C85" s="6">
+      <c r="E85" s="10">
         <v>2216000</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+    <row r="86" spans="1:5" ht="16">
+      <c r="A86" s="28">
+        <v>2020</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="13">
         <v>43831</v>
       </c>
-      <c r="B86" s="9">
+      <c r="D86" s="8">
         <v>200</v>
       </c>
-      <c r="C86" s="6">
+      <c r="E86" s="10">
         <v>1895000</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
+    <row r="87" spans="1:5" ht="16">
+      <c r="A87" s="28"/>
+      <c r="B87" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="13">
         <v>43862</v>
       </c>
-      <c r="B87" s="9">
+      <c r="D87" s="8">
         <v>206</v>
       </c>
-      <c r="C87" s="6">
+      <c r="E87" s="10">
         <v>581000</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
+    <row r="88" spans="1:5" ht="16">
+      <c r="A88" s="28"/>
+      <c r="B88" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="13">
         <v>43891</v>
       </c>
-      <c r="B88" s="9">
+      <c r="D88" s="8">
         <v>199</v>
       </c>
-      <c r="C88" s="6">
+      <c r="E88" s="10">
         <v>2312000</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
+    <row r="89" spans="1:5" ht="16">
+      <c r="A89" s="28"/>
+      <c r="B89" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="13">
         <v>43922</v>
       </c>
-      <c r="B89" s="9">
+      <c r="D89" s="8">
         <v>198</v>
       </c>
-      <c r="C89" s="6">
+      <c r="E89" s="10">
         <v>4098000</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
+    <row r="90" spans="1:5" ht="16">
+      <c r="A90" s="28"/>
+      <c r="B90" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="13">
         <v>43952</v>
       </c>
-      <c r="B90" s="9">
+      <c r="D90" s="8">
         <v>195</v>
       </c>
-      <c r="C90" s="6">
+      <c r="E90" s="10">
         <v>470000</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
+    <row r="91" spans="1:5" ht="16">
+      <c r="A91" s="28"/>
+      <c r="B91" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="13">
         <v>43983</v>
       </c>
-      <c r="B91" s="9">
+      <c r="D91" s="8">
         <v>202</v>
       </c>
-      <c r="C91" s="6">
+      <c r="E91" s="10">
         <v>1059000</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
+    <row r="92" spans="1:5" ht="16">
+      <c r="A92" s="28"/>
+      <c r="B92" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="13">
         <v>44013</v>
       </c>
-      <c r="B92" s="9">
+      <c r="D92" s="8">
         <v>199</v>
       </c>
-      <c r="C92" s="6">
+      <c r="E92" s="10">
         <v>2509000</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
+    <row r="93" spans="1:5" ht="16">
+      <c r="A93" s="28"/>
+      <c r="B93" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="13">
         <v>44044</v>
       </c>
-      <c r="B93" s="9">
+      <c r="D93" s="8">
         <v>196</v>
       </c>
-      <c r="C93" s="6">
+      <c r="E93" s="10">
         <v>857000</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
+    <row r="94" spans="1:5" ht="16">
+      <c r="A94" s="28"/>
+      <c r="B94" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="13">
         <v>44075</v>
       </c>
-      <c r="B94" s="9">
+      <c r="D94" s="8">
         <v>196</v>
       </c>
-      <c r="C94" s="6">
+      <c r="E94" s="10">
         <v>1553000</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
+    <row r="95" spans="1:5" ht="16">
+      <c r="A95" s="28"/>
+      <c r="B95" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="13">
         <v>44105</v>
       </c>
-      <c r="B95" s="9">
+      <c r="D95" s="8">
         <v>198</v>
       </c>
-      <c r="C95" s="6">
+      <c r="E95" s="10">
         <v>2237000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
+    <row r="96" spans="1:5" ht="16">
+      <c r="A96" s="28"/>
+      <c r="B96" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="13">
         <v>44136</v>
       </c>
-      <c r="B96" s="9">
+      <c r="D96" s="8">
         <v>196</v>
       </c>
-      <c r="C96" s="6">
+      <c r="E96" s="10">
         <v>1207000</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
+    <row r="97" spans="1:5" ht="16">
+      <c r="A97" s="28"/>
+      <c r="B97" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="13">
         <v>44166</v>
       </c>
-      <c r="B97" s="9">
+      <c r="D97" s="8">
         <v>199</v>
       </c>
-      <c r="C97" s="6">
+      <c r="E97" s="10">
         <v>2997000</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
+    <row r="98" spans="1:5" ht="16">
+      <c r="A98" s="28">
+        <v>2021</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="13">
         <v>44197</v>
       </c>
-      <c r="B98" s="9">
+      <c r="D98" s="8">
         <v>199</v>
       </c>
-      <c r="C98" s="6">
+      <c r="E98" s="10">
         <v>2176000</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
+    <row r="99" spans="1:5" ht="16">
+      <c r="A99" s="28"/>
+      <c r="B99" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="13">
         <v>44228</v>
       </c>
-      <c r="B99" s="9">
+      <c r="D99" s="8">
         <v>197</v>
       </c>
-      <c r="C99" s="6">
+      <c r="E99" s="10">
         <v>1019000</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
+    <row r="100" spans="1:5" ht="16">
+      <c r="A100" s="28"/>
+      <c r="B100" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="13">
         <v>44256</v>
       </c>
-      <c r="B100" s="9">
+      <c r="D100" s="8">
         <v>198</v>
       </c>
-      <c r="C100" s="6">
+      <c r="E100" s="10">
         <v>3490000</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
+    <row r="101" spans="1:5" ht="16">
+      <c r="A101" s="28"/>
+      <c r="B101" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="13">
         <v>44287</v>
       </c>
-      <c r="B101" s="9">
+      <c r="D101" s="8">
         <v>192</v>
       </c>
-      <c r="C101" s="6">
+      <c r="E101" s="10">
         <v>3445000</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
+    <row r="102" spans="1:5" ht="16">
+      <c r="A102" s="28"/>
+      <c r="B102" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="13">
         <v>44317</v>
       </c>
-      <c r="B102" s="9">
+      <c r="D102" s="8">
         <v>190</v>
       </c>
-      <c r="C102" s="6">
+      <c r="E102" s="10">
         <v>791000</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
+    <row r="103" spans="1:5" ht="16">
+      <c r="A103" s="28"/>
+      <c r="B103" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="13">
         <v>44348</v>
       </c>
-      <c r="B103" s="9">
+      <c r="D103" s="8">
         <v>190</v>
       </c>
-      <c r="C103" s="6">
+      <c r="E103" s="10">
         <v>1873000</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
+    <row r="104" spans="1:5" ht="16">
+      <c r="A104" s="28"/>
+      <c r="B104" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="13">
         <v>44378</v>
       </c>
-      <c r="B104" s="9">
+      <c r="D104" s="8">
         <v>188</v>
       </c>
-      <c r="C104" s="6">
+      <c r="E104" s="10">
         <v>2125000</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
+    <row r="105" spans="1:5" ht="16">
+      <c r="A105" s="28"/>
+      <c r="B105" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="13">
         <v>44409</v>
       </c>
-      <c r="B105" s="9">
+      <c r="D105" s="8">
         <v>185</v>
       </c>
-      <c r="C105" s="6">
+      <c r="E105" s="10">
         <v>709000</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
+    <row r="106" spans="1:5" ht="16">
+      <c r="A106" s="28"/>
+      <c r="B106" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="13">
         <v>44440</v>
       </c>
-      <c r="B106" s="9">
+      <c r="D106" s="8">
         <v>183</v>
       </c>
-      <c r="C106" s="6">
+      <c r="E106" s="10">
         <v>1518000</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
+    <row r="107" spans="1:5" ht="16">
+      <c r="A107" s="28"/>
+      <c r="B107" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="13">
         <v>44470</v>
       </c>
-      <c r="B107" s="9">
+      <c r="D107" s="8">
         <v>182</v>
       </c>
-      <c r="C107" s="6">
+      <c r="E107" s="10">
         <v>3782000</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
+    <row r="108" spans="1:5" ht="16">
+      <c r="A108" s="28"/>
+      <c r="B108" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="13">
         <v>44501</v>
       </c>
-      <c r="B108" s="9">
+      <c r="D108" s="8">
         <v>174</v>
       </c>
-      <c r="C108" s="6">
+      <c r="E108" s="10">
         <v>1125000</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
+    <row r="109" spans="1:5" ht="16">
+      <c r="A109" s="28"/>
+      <c r="B109" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="13">
         <v>44531</v>
       </c>
-      <c r="B109" s="9">
+      <c r="D109" s="8">
         <v>172</v>
       </c>
-      <c r="C109" s="6">
+      <c r="E109" s="10">
         <v>3217000</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
+    <row r="110" spans="1:5" ht="16">
+      <c r="A110" s="28">
+        <v>2022</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="13">
         <v>44562</v>
       </c>
-      <c r="B110" s="9">
+      <c r="D110" s="8">
         <v>167</v>
       </c>
-      <c r="C110" s="6">
+      <c r="E110" s="10">
         <v>3389000</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
+    <row r="111" spans="1:5" ht="16">
+      <c r="A111" s="28"/>
+      <c r="B111" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="13">
         <v>44593</v>
       </c>
-      <c r="B111" s="9">
+      <c r="D111" s="8">
         <v>163</v>
       </c>
-      <c r="C111" s="6">
+      <c r="E111" s="10">
         <v>1550000</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
+    <row r="112" spans="1:5" ht="16">
+      <c r="A112" s="28"/>
+      <c r="B112" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="13">
         <v>44621</v>
       </c>
-      <c r="B112" s="9">
+      <c r="D112" s="8">
         <v>158</v>
       </c>
-      <c r="C112" s="6">
+      <c r="E112" s="10">
         <v>3301000</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
+    <row r="113" spans="1:6" ht="16">
+      <c r="A113" s="28"/>
+      <c r="B113" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="13">
         <v>44652</v>
       </c>
-      <c r="B113" s="9">
+      <c r="D113" s="8">
         <v>153</v>
       </c>
-      <c r="C113" s="6">
+      <c r="E113" s="10">
         <v>4584000</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
+    <row r="114" spans="1:6" ht="16">
+      <c r="A114" s="28"/>
+      <c r="B114" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="13">
         <v>44682</v>
       </c>
-      <c r="B114" s="9">
+      <c r="D114" s="8">
         <v>125</v>
       </c>
-      <c r="C114" s="6">
+      <c r="E114" s="10">
         <v>861000</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
+    <row r="115" spans="1:6" ht="16">
+      <c r="A115" s="28"/>
+      <c r="B115" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="13">
         <v>44713</v>
       </c>
-      <c r="B115" s="9">
+      <c r="D115" s="8">
         <v>113</v>
       </c>
-      <c r="C115" s="6">
+      <c r="E115" s="10">
         <v>1268000</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
+    <row r="116" spans="1:6" ht="16">
+      <c r="A116" s="28"/>
+      <c r="B116" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="13">
         <v>44743</v>
       </c>
-      <c r="B116" s="9">
+      <c r="D116" s="8">
         <v>117</v>
       </c>
-      <c r="C116" s="6">
+      <c r="E116" s="10">
         <v>3680000</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
+    <row r="117" spans="1:6" ht="16">
+      <c r="A117" s="28"/>
+      <c r="B117" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="13">
         <v>44774</v>
       </c>
-      <c r="B117" s="9">
+      <c r="D117" s="8">
         <v>97</v>
       </c>
-      <c r="C117" s="6">
+      <c r="E117" s="10">
         <v>1624000</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
+    <row r="118" spans="1:6" ht="16">
+      <c r="A118" s="28"/>
+      <c r="B118" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="13">
         <v>44805</v>
       </c>
-      <c r="B118" s="9">
+      <c r="D118" s="8">
         <v>102</v>
       </c>
-      <c r="C118" s="6">
+      <c r="E118" s="10">
         <v>1759000</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
+    <row r="119" spans="1:6" ht="16">
+      <c r="A119" s="28"/>
+      <c r="B119" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="13">
         <v>44835</v>
       </c>
-      <c r="B119" s="9">
+      <c r="D119" s="8">
         <v>106</v>
       </c>
-      <c r="C119" s="6">
+      <c r="E119" s="10">
         <v>5005000</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
+    <row r="120" spans="1:6" ht="16">
+      <c r="A120" s="28"/>
+      <c r="B120" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="13">
         <v>44866</v>
       </c>
-      <c r="B120" s="9">
+      <c r="D120" s="8">
         <v>81</v>
       </c>
-      <c r="C120" s="6">
+      <c r="E120" s="10">
         <v>2379000</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
+    <row r="121" spans="1:6" ht="16">
+      <c r="A121" s="28"/>
+      <c r="B121" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="13">
         <v>44896</v>
       </c>
-      <c r="B121" s="9">
+      <c r="D121" s="8">
         <v>86</v>
       </c>
-      <c r="C121" s="6">
+      <c r="E121" s="10">
         <v>3001000</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
+    <row r="122" spans="1:6" ht="16">
+      <c r="A122" s="28">
+        <v>2023</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="13">
         <v>44927</v>
       </c>
-      <c r="B122" s="9">
+      <c r="D122" s="8">
         <v>81</v>
       </c>
-      <c r="C122" s="6">
+      <c r="E122" s="10">
         <v>4564000</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
+    <row r="123" spans="1:6" ht="16">
+      <c r="A123" s="28"/>
+      <c r="B123" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="13">
         <v>44958</v>
       </c>
-      <c r="B123" s="9">
+      <c r="D123" s="8">
         <v>71</v>
       </c>
-      <c r="C123" s="6">
+      <c r="E123" s="10">
         <v>1293000</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
+      <c r="F123" s="16"/>
+    </row>
+    <row r="124" spans="1:6" ht="16">
+      <c r="A124" s="28"/>
+      <c r="B124" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="13">
         <v>45008</v>
       </c>
-      <c r="B124" s="9">
+      <c r="D124" s="8">
         <v>73</v>
       </c>
-      <c r="C124" s="6">
+      <c r="E124" s="10">
         <v>2702000</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
+    <row r="125" spans="1:6" ht="16">
+      <c r="A125" s="28"/>
+      <c r="B125" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="13">
         <v>45039</v>
       </c>
-      <c r="B125" s="9">
+      <c r="D125" s="8">
         <v>74</v>
       </c>
-      <c r="C125" s="6">
+      <c r="E125" s="10">
         <v>5596000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
+    <row r="126" spans="1:6" ht="16">
+      <c r="A126" s="28"/>
+      <c r="B126" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="13">
         <v>45069</v>
       </c>
-      <c r="B126" s="9">
+      <c r="D126" s="8">
         <v>81</v>
       </c>
-      <c r="C126" s="6">
+      <c r="E126" s="10">
         <v>1684000</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
+    <row r="127" spans="1:6" ht="16">
+      <c r="A127" s="28"/>
+      <c r="B127" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="13">
         <v>45100</v>
       </c>
-      <c r="B127" s="9">
+      <c r="D127" s="8">
         <v>79</v>
       </c>
-      <c r="C127" s="6">
+      <c r="E127" s="10">
         <v>2470000</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
+    <row r="128" spans="1:6" ht="16">
+      <c r="A128" s="28"/>
+      <c r="B128" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="13">
         <v>45108</v>
       </c>
-      <c r="B128" s="9">
+      <c r="D128" s="8">
         <v>75</v>
       </c>
-      <c r="C128" s="6">
+      <c r="E128" s="10">
         <v>4347000</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
+    <row r="129" spans="1:5" ht="16">
+      <c r="A129" s="28"/>
+      <c r="B129" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="13">
         <v>45161</v>
       </c>
-      <c r="B129" s="9">
+      <c r="D129" s="8">
         <v>77</v>
       </c>
-      <c r="C129" s="6">
+      <c r="E129" s="10">
         <v>2044000</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
+    <row r="130" spans="1:5" ht="16">
+      <c r="A130" s="28"/>
+      <c r="B130" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="13">
         <v>45170</v>
       </c>
-      <c r="B130" s="9">
+      <c r="D130" s="8">
         <v>73</v>
       </c>
-      <c r="C130" s="6">
+      <c r="E130" s="10">
         <v>1993000</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
+    <row r="131" spans="1:5" ht="16">
+      <c r="A131" s="28"/>
+      <c r="B131" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="13">
         <v>45200</v>
       </c>
-      <c r="B131" s="9">
+      <c r="D131" s="8">
         <v>76</v>
       </c>
-      <c r="C131" s="6">
+      <c r="E131" s="10">
         <v>4661000</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
+    <row r="132" spans="1:5" ht="16">
+      <c r="A132" s="28"/>
+      <c r="B132" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="13">
         <v>45231</v>
       </c>
-      <c r="B132" s="9">
+      <c r="D132" s="8">
         <v>70</v>
       </c>
-      <c r="C132" s="6">
+      <c r="E132" s="10">
         <v>2672000</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
+    <row r="133" spans="1:5" ht="16">
+      <c r="A133" s="28"/>
+      <c r="B133" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="13">
         <v>45261</v>
       </c>
-      <c r="B133" s="9">
+      <c r="D133" s="8">
         <v>73</v>
       </c>
-      <c r="C133" s="6">
+      <c r="E133" s="10">
         <v>6161000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
+    <row r="134" spans="1:5" ht="16">
+      <c r="A134" s="28">
+        <v>2024</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="13">
         <v>45292</v>
       </c>
-      <c r="B134" s="9">
+      <c r="D134" s="8">
         <v>69</v>
       </c>
-      <c r="C134" s="6">
+      <c r="E134" s="10">
         <v>6196000</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
+    <row r="135" spans="1:5" ht="16">
+      <c r="A135" s="28"/>
+      <c r="B135" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" s="13">
         <v>45323</v>
       </c>
-      <c r="B135" s="9">
+      <c r="D135" s="8">
         <v>62</v>
       </c>
-      <c r="C135" s="6">
+      <c r="E135" s="10">
         <v>1911000</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
+    <row r="136" spans="1:5" ht="16">
+      <c r="A136" s="28"/>
+      <c r="B136" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="13">
         <v>45352</v>
       </c>
-      <c r="B136" s="9">
+      <c r="D136" s="8">
         <v>66</v>
       </c>
-      <c r="C136" s="6">
+      <c r="E136" s="10">
         <v>3999000</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
+    <row r="137" spans="1:5" ht="16">
+      <c r="A137" s="28"/>
+      <c r="B137" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="13">
         <v>45383</v>
       </c>
-      <c r="B137" s="9">
+      <c r="D137" s="8">
         <v>67</v>
       </c>
-      <c r="C137" s="6">
+      <c r="E137" s="10">
         <v>6271000</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
+    <row r="138" spans="1:5" ht="16">
+      <c r="A138" s="28"/>
+      <c r="B138" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="13">
         <v>45413</v>
       </c>
-      <c r="B138" s="9">
+      <c r="D138" s="8">
         <v>56</v>
       </c>
-      <c r="C138" s="6">
+      <c r="E138" s="10">
         <v>1577000</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="4">
+    <row r="139" spans="1:5" ht="16">
+      <c r="A139" s="28"/>
+      <c r="B139" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="13">
         <v>45444</v>
       </c>
-      <c r="B139" s="9">
+      <c r="D139" s="8">
         <v>51</v>
       </c>
-      <c r="C139" s="6">
+      <c r="E139" s="10">
         <v>1543000</v>
       </c>
     </row>
+    <row r="140" spans="1:5" ht="16">
+      <c r="A140" s="28"/>
+      <c r="B140" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="13">
+        <v>45474</v>
+      </c>
+      <c r="D140" s="8">
+        <v>57</v>
+      </c>
+      <c r="E140" s="10">
+        <v>6283000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="16">
+      <c r="A141" s="28"/>
+      <c r="B141" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="13">
+        <v>45505</v>
+      </c>
+      <c r="D141" s="8">
+        <v>54</v>
+      </c>
+      <c r="E141" s="10">
+        <v>2155000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="16">
+      <c r="A142" s="28"/>
+      <c r="B142" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="13">
+        <v>45536</v>
+      </c>
+      <c r="D142" s="8">
+        <v>60</v>
+      </c>
+      <c r="E142" s="10">
+        <v>3022000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="16">
+      <c r="A143" s="28"/>
+      <c r="B143" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="13">
+        <v>45566</v>
+      </c>
+      <c r="D143" s="8">
+        <v>62</v>
+      </c>
+      <c r="E143" s="10">
+        <v>7095000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="16">
+      <c r="A144" s="28"/>
+      <c r="B144" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="13">
+        <v>45597</v>
+      </c>
+      <c r="D144" s="8">
+        <v>70</v>
+      </c>
+      <c r="E144" s="10">
+        <v>2224000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="16">
+      <c r="A145" s="28"/>
+      <c r="B145" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="13">
+        <v>45627</v>
+      </c>
+      <c r="D145" s="8">
+        <v>70</v>
+      </c>
+      <c r="E145" s="10">
+        <v>7522000</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="A62:A73"/>
+    <mergeCell ref="A50:A61"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="A38:A49"/>
+    <mergeCell ref="A134:A145"/>
+    <mergeCell ref="A122:A133"/>
+    <mergeCell ref="A110:A121"/>
+    <mergeCell ref="A98:A109"/>
+    <mergeCell ref="A86:A97"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>